--- a/School of Mathematics - Timetable Data.xlsx
+++ b/School of Mathematics - Timetable Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TAOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repos\topics_in_or\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39DF49D-E85C-44A2-945D-9C25745712DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1402DA-C696-4D30-A4E7-95234795CFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21347" uniqueCount="1705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21328" uniqueCount="1705">
   <si>
     <t>Activity Type Name</t>
   </si>
@@ -5192,7 +5192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5474,7 +5474,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A1:A6"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72017,6 +72017,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100347DA14A51159347908FCB644918D075" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f74c0c6907a9c4c0d2bc11040657d8f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2471f7f-c541-44b1-a67d-1fdff98d7327" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c15f0e2457fdefd102a89a6f1db48816" ns2:_="">
     <xsd:import namespace="b2471f7f-c541-44b1-a67d-1fdff98d7327"/>
@@ -72160,23 +72175,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC72192A-EE8C-4607-ABAE-8733022874D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7048736F-AB72-4C39-A23D-BB1174C747DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="43daddf6-b6bf-4bbf-b56a-031e07b1930f"/>
+    <ds:schemaRef ds:uri="910fe472-5e28-4c5f-b383-4161ba04943e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72188,12 +72195,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7048736F-AB72-4C39-A23D-BB1174C747DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC72192A-EE8C-4607-ABAE-8733022874D9}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b2471f7f-c541-44b1-a67d-1fdff98d7327"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="43daddf6-b6bf-4bbf-b56a-031e07b1930f"/>
-    <ds:schemaRef ds:uri="910fe472-5e28-4c5f-b383-4161ba04943e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/School of Mathematics - Timetable Data.xlsx
+++ b/School of Mathematics - Timetable Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repos\topics_in_or\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1402DA-C696-4D30-A4E7-95234795CFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013A6B1D-7DF5-4D3A-A1DD-7833634819C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5472,16 +5472,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.140625" customWidth="1"/>
     <col min="4" max="4" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
